--- a/Labo_04/partie2/terre_rare/cours_terres_rares.xlsx
+++ b/Labo_04/partie2/terre_rare/cours_terres_rares.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\14-15\Sciences\AlgorithmesNumériques\Labos\trunk\Labo_04\partie2\terre_rare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Google Drive\He-Arc\AlgoNum\GIT\Labo_04\partie2\terre_rare\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
   <si>
     <t>année</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>inflation cummulée</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2226,11 +2235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="416908312"/>
-        <c:axId val="416905176"/>
+        <c:axId val="490781680"/>
+        <c:axId val="490784424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="416908312"/>
+        <c:axId val="490781680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,14 +2282,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416905176"/>
+        <c:crossAx val="490784424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="416905176"/>
+        <c:axId val="490784424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2340,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416908312"/>
+        <c:crossAx val="490781680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4012,11 +4021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="416901256"/>
-        <c:axId val="416904000"/>
+        <c:axId val="490784816"/>
+        <c:axId val="490782464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="416901256"/>
+        <c:axId val="490784816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,14 +4068,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416904000"/>
+        <c:crossAx val="490782464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="416904000"/>
+        <c:axId val="490782464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4126,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416901256"/>
+        <c:crossAx val="490784816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5315,15 +5324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5608,10 +5617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6253,7 @@
         <v>0.70793676151937324</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="d">
         <v>2011-01-28</v>
       </c>
@@ -6264,7 +6273,7 @@
         <v>0.71903666061119975</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="d">
         <v>2011-01-31</v>
       </c>
@@ -6284,7 +6293,7 @@
         <v>0.70406660073096028</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="d">
         <v>2011-02-04</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>0.78410712757999768</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="d">
         <v>2011-02-11</v>
       </c>
@@ -6324,27 +6333,27 @@
         <v>0.76769061726104837</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="d">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="d">
         <v>2011-02-18</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>215.7</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <f t="shared" si="1"/>
         <v>2.8612303290414878E-2</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <f t="shared" si="2"/>
         <v>0.79630292055146323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="d">
         <v>2011-02-25</v>
       </c>
@@ -6364,7 +6373,7 @@
         <v>0.73139795995804646</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="d">
         <v>2011-02-28</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>0.76312825247168059</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="d">
         <v>2011-03-04</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>0.77946655136644272</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="d">
         <v>2011-03-11</v>
       </c>
@@ -6424,27 +6433,27 @@
         <v>0.72036489652010705</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="d">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="d">
         <v>2011-03-18</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>179.3</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <f t="shared" si="0"/>
         <v>-19.699999999999989</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <f t="shared" si="1"/>
         <v>-9.8994974874371797E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="5">
         <f t="shared" si="2"/>
         <v>0.62136992164573523</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="d">
         <v>2011-03-25</v>
       </c>
@@ -6464,7 +6473,7 @@
         <v>0.72399122672102789</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="d">
         <v>2011-03-31</v>
       </c>
@@ -6484,7 +6493,7 @@
         <v>0.76293912758091675</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="d">
         <v>2011-04-01</v>
       </c>
@@ -6504,27 +6513,27 @@
         <v>0.76488654724985539</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="d">
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="d">
         <v>2011-04-15</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>214.6</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>8.7999999999999829</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <f t="shared" si="1"/>
         <v>4.2759961127307983E-2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
         <f t="shared" si="2"/>
         <v>0.80764650837716334</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="d">
         <v>2011-04-21</v>
       </c>
@@ -6543,8 +6552,15 @@
         <f t="shared" si="2"/>
         <v>0.79087111229142248</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <f>(B37-100)/37</f>
+        <v>3.1270270270270268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="d">
         <v>2011-04-29</v>
       </c>
@@ -6563,6 +6579,13 @@
         <f t="shared" si="2"/>
         <v>0.78992324499284439</v>
       </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <f>(B46-100)/46</f>
+        <v>2.491304347826087</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="d">
@@ -10686,7 +10709,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>